--- a/contents/Luna/잔월_몬스터 테이블_.xlsx
+++ b/contents/Luna/잔월_몬스터 테이블_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\Luna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wepatens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D2692-DC32-4D77-8F25-19692EA4BBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA10E46-B0F1-41A0-A22D-5F725B28907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="어둑시니" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,12 @@
     <sheet name="기록" sheetId="6" r:id="rId4"/>
     <sheet name="기록용" sheetId="1" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">기록용!$A$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">두억시니!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">어둑시니!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">외눈요괴!$A$1:$H$22</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1519,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35685CDF-3594-4CBA-AB60-9A99A0D91C8A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
@@ -2122,6 +2128,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A11:A12"/>
@@ -2138,51 +2185,10 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2190,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE486D4-36CE-4236-8A18-831B86501080}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2918,6 +2924,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="25" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -2925,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE393D27-080F-4AFA-B414-697D5A2F2158}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3418,6 +3428,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3425,7 +3436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CC21-F488-4AB5-BFDF-AAF1E83257B6}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3466,6 +3477,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3473,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA60AC2-729B-410D-82DC-0ADADD01CEEE}">
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F32" sqref="E32:F32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4223,5 +4235,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="27" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/contents/Luna/잔월_몬스터 테이블_.xlsx
+++ b/contents/Luna/잔월_몬스터 테이블_.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wepatens\contents\Luna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA10E46-B0F1-41A0-A22D-5F725B28907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C7E92-645C-4D53-B633-6E465E926816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="어둑시니" sheetId="5" r:id="rId1"/>
     <sheet name="두억시니" sheetId="2" r:id="rId2"/>
     <sheet name="외눈요괴" sheetId="4" r:id="rId3"/>
-    <sheet name="기록" sheetId="6" r:id="rId4"/>
-    <sheet name="기록용" sheetId="1" r:id="rId5"/>
+    <sheet name="기록용" sheetId="1" r:id="rId4"/>
+    <sheet name="기록" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">기록용!$A$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">두억시니!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">기록용!$A$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">두억시니!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">어둑시니!$A$1:$H$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">외눈요괴!$A$1:$H$22</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="171">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -986,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,21 +1152,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,6 +1193,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,9 +1239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1267,7 +1279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1373,7 +1385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1515,7 +1527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1525,650 +1537,609 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35685CDF-3594-4CBA-AB60-9A99A0D91C8A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="20.625" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.625" style="70" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.75" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="69" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="72" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="52" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+    <row r="3" spans="1:8" s="73" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="74" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="51" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="70" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="36" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="51" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="36" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="36" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="60"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="59"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="36" t="s">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="36" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="36" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
     </row>
     <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="60"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="36" t="s">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="36" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="36" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="36" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="71" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="70">
         <v>20</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="71" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="70">
         <v>30</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="70" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="74">
         <v>20</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="74" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="36" t="s">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="9"/>
+      <c r="G33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A11:A12"/>
@@ -2185,10 +2156,51 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="33" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2196,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE486D4-36CE-4236-8A18-831B86501080}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2272,8 +2284,8 @@
       <c r="F3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
@@ -2296,8 +2308,8 @@
       <c r="F4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="61"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
@@ -2320,8 +2332,8 @@
       <c r="F5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
@@ -2344,8 +2356,8 @@
       <c r="F6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="61"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
@@ -2356,8 +2368,8 @@
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
@@ -2368,8 +2380,8 @@
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="61"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -2421,7 +2433,7 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="61"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
@@ -2447,7 +2459,7 @@
       <c r="G13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="62"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -2470,8 +2482,8 @@
       <c r="F14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="62"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -2494,8 +2506,8 @@
       <c r="F15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="62"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -2516,7 +2528,7 @@
       <c r="F16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="63"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -2538,7 +2550,7 @@
       <c r="F17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="63"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2565,7 +2577,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="61"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
@@ -2591,7 +2603,7 @@
       <c r="G20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="62"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -2612,8 +2624,8 @@
         <v>129</v>
       </c>
       <c r="F21" s="36"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="62"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="57"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
@@ -2634,8 +2646,8 @@
         <v>130</v>
       </c>
       <c r="F22" s="36"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="62"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
@@ -2656,7 +2668,7 @@
         <v>136</v>
       </c>
       <c r="F23" s="36"/>
-      <c r="G23" s="63"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="1"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -2678,7 +2690,7 @@
         <v>126</v>
       </c>
       <c r="F24" s="36"/>
-      <c r="G24" s="63"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="1"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -2704,71 +2716,71 @@
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="61"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="61"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="61"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="61"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="1"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -2924,10 +2936,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="6" max="25" man="1"/>
-  </colBreaks>
+  <pageSetup scale="32" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2935,7 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE393D27-080F-4AFA-B414-697D5A2F2158}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3015,7 +3024,7 @@
         <v>112</v>
       </c>
       <c r="G3" s="39"/>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="61" t="s">
         <v>170</v>
       </c>
       <c r="I3" s="10"/>
@@ -3039,7 +3048,7 @@
         <v>108</v>
       </c>
       <c r="G4" s="41"/>
-      <c r="H4" s="67"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
@@ -3063,7 +3072,7 @@
         <v>109</v>
       </c>
       <c r="G5" s="41"/>
-      <c r="H5" s="67"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
@@ -3077,7 +3086,7 @@
       <c r="E6" s="45"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="67"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
@@ -3091,7 +3100,7 @@
       <c r="E7" s="45"/>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
-      <c r="H7" s="67"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
@@ -3103,7 +3112,7 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="H8" s="68"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -3181,7 +3190,7 @@
         <v>113</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="69"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
@@ -3195,7 +3204,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="13"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="70"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -3209,7 +3218,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="13"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="70"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -3223,7 +3232,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="71"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -3301,7 +3310,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="60"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
@@ -3325,7 +3334,7 @@
         <v>119</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="64"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -3339,7 +3348,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="64"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
@@ -3353,7 +3362,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="24"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="65"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
@@ -3433,60 +3442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CC21-F488-4AB5-BFDF-AAF1E83257B6}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="32" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
-        <v>45037</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA60AC2-729B-410D-82DC-0ADADD01CEEE}">
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3557,7 +3517,7 @@
       <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="68" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3583,7 +3543,7 @@
       <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="69"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
@@ -3607,7 +3567,7 @@
       <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="69"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
@@ -3631,7 +3591,7 @@
       <c r="G7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
@@ -3655,7 +3615,7 @@
       <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
@@ -3679,7 +3639,7 @@
       <c r="G9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="72"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H10" s="29"/>
@@ -3736,7 +3696,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="64" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3759,7 +3719,7 @@
       <c r="F14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
@@ -3780,7 +3740,7 @@
       <c r="F15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -3792,7 +3752,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
@@ -3851,7 +3811,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="64" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3874,7 +3834,7 @@
       <c r="F21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="69"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
@@ -3895,7 +3855,7 @@
       <c r="F22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="69"/>
+      <c r="H22" s="64"/>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
@@ -3915,7 +3875,7 @@
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="67"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
@@ -3969,7 +3929,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="68" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3992,13 +3952,13 @@
       <c r="F28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="69"/>
+      <c r="H28" s="64"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>3</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
@@ -4008,7 +3968,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="72"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
@@ -4237,4 +4197,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="27" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CC21-F488-4AB5-BFDF-AAF1E83257B6}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="32" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="46">
+        <v>45033</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="46">
+        <v>45037</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>